--- a/data/副本公式汇总.xlsx
+++ b/data/副本公式汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MCM2025\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FACC2021-075C-431E-A87E-80DC29AF9D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0036AE97-DE11-4A3B-BC84-CA4DB5581A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,19 +38,20 @@
     <t>收入和游客的拟合方程</t>
   </si>
   <si>
+    <t>碳排放和游客的拟合方程</t>
+  </si>
+  <si>
+    <t>碳排放=游客数*0.043-29023.987</t>
+  </si>
+  <si>
+    <t>邮轮游客和游客总数的拟合方程（用于不全游客总数数据）</t>
+  </si>
+  <si>
+    <t>游客数=166878.151+1.572*邮轮游客数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>收入=游客数量*136.581-186843122</t>
-  </si>
-  <si>
-    <t>碳排放和游客的拟合方程</t>
-  </si>
-  <si>
-    <t>邮轮游客和游客总数的拟合方程（用于不全游客总数数据）</t>
-  </si>
-  <si>
-    <t>游客数=166878.151+1.572*邮轮游客数</t>
-  </si>
-  <si>
-    <t>碳排放=游客数*0.043-29023.987</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -378,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -394,24 +395,37 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1638902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2836658</v>
+      </c>
+      <c r="B6">
+        <v>2743232</v>
       </c>
     </row>
   </sheetData>
